--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H2">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I2">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J2">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N2">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O2">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P2">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q2">
-        <v>18136.37825183439</v>
+        <v>5013.29913399202</v>
       </c>
       <c r="R2">
-        <v>163227.4042665095</v>
+        <v>45119.69220592818</v>
       </c>
       <c r="S2">
-        <v>0.1962256014480858</v>
+        <v>0.09150922838635732</v>
       </c>
       <c r="T2">
-        <v>0.1962256014480858</v>
+        <v>0.09150922838635732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H3">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I3">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J3">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N3">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q3">
-        <v>8566.74142185754</v>
+        <v>1807.771808615026</v>
       </c>
       <c r="R3">
-        <v>77100.67279671787</v>
+        <v>16269.94627753523</v>
       </c>
       <c r="S3">
-        <v>0.09268741336403268</v>
+        <v>0.03299779224888238</v>
       </c>
       <c r="T3">
-        <v>0.09268741336403265</v>
+        <v>0.03299779224888238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H4">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I4">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J4">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N4">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O4">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P4">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q4">
-        <v>349.96957341262</v>
+        <v>23.71501994775833</v>
       </c>
       <c r="R4">
-        <v>3149.72616071358</v>
+        <v>213.435179529825</v>
       </c>
       <c r="S4">
-        <v>0.003786477601969706</v>
+        <v>0.0004328772567892597</v>
       </c>
       <c r="T4">
-        <v>0.003786477601969705</v>
+        <v>0.0004328772567892597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H5">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I5">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J5">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N5">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q5">
-        <v>4004.359479670391</v>
+        <v>609.3012881005984</v>
       </c>
       <c r="R5">
-        <v>36039.23531703351</v>
+        <v>5483.711592905385</v>
       </c>
       <c r="S5">
-        <v>0.04332495917332291</v>
+        <v>0.01112175620059222</v>
       </c>
       <c r="T5">
-        <v>0.04332495917332291</v>
+        <v>0.01112175620059222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>141.70809</v>
+        <v>23.67701833333334</v>
       </c>
       <c r="H6">
-        <v>425.12427</v>
+        <v>71.03105500000001</v>
       </c>
       <c r="I6">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="J6">
-        <v>0.4270657810795758</v>
+        <v>0.1942294555737345</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N6">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O6">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P6">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q6">
-        <v>8414.600215439379</v>
+        <v>3186.701428191262</v>
       </c>
       <c r="R6">
-        <v>75731.40193895443</v>
+        <v>28680.31285372136</v>
       </c>
       <c r="S6">
-        <v>0.09104132949216474</v>
+        <v>0.05816780148111334</v>
       </c>
       <c r="T6">
-        <v>0.0910413294921647</v>
+        <v>0.05816780148111334</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H7">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I7">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J7">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N7">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O7">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P7">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q7">
-        <v>2345.4531496888</v>
+        <v>3153.850626063158</v>
       </c>
       <c r="R7">
-        <v>21109.0783471992</v>
+        <v>28384.65563456842</v>
       </c>
       <c r="S7">
-        <v>0.02537650839518864</v>
+        <v>0.05756816609645558</v>
       </c>
       <c r="T7">
-        <v>0.02537650839518864</v>
+        <v>0.05756816609645558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H8">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I8">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J8">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N8">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q8">
-        <v>1107.877789681245</v>
+        <v>1137.26352607247</v>
       </c>
       <c r="R8">
-        <v>9970.900107131201</v>
+        <v>10235.37173465223</v>
       </c>
       <c r="S8">
-        <v>0.01198662613850095</v>
+        <v>0.02075880671815611</v>
       </c>
       <c r="T8">
-        <v>0.01198662613850094</v>
+        <v>0.0207588067181561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H9">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I9">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J9">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N9">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O9">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P9">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q9">
-        <v>45.25915962151111</v>
+        <v>14.91904402875333</v>
       </c>
       <c r="R9">
-        <v>407.3324365936</v>
+        <v>134.27139625878</v>
       </c>
       <c r="S9">
-        <v>0.0004896791241585226</v>
+        <v>0.0002723217128769643</v>
       </c>
       <c r="T9">
-        <v>0.0004896791241585225</v>
+        <v>0.0002723217128769644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H10">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I10">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J10">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N10">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q10">
-        <v>517.8562899199112</v>
+        <v>383.3095128730093</v>
       </c>
       <c r="R10">
-        <v>4660.7066092792</v>
+        <v>3449.785615857084</v>
       </c>
       <c r="S10">
-        <v>0.005602919201518692</v>
+        <v>0.006996661643094248</v>
       </c>
       <c r="T10">
-        <v>0.00560291920151869</v>
+        <v>0.006996661643094249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.32613333333333</v>
+        <v>14.89513733333333</v>
       </c>
       <c r="H11">
-        <v>54.9784</v>
+        <v>44.685412</v>
       </c>
       <c r="I11">
-        <v>0.05522948228409861</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="J11">
-        <v>0.0552294822840986</v>
+        <v>0.1221891360736233</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N11">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O11">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P11">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q11">
-        <v>1088.202413107378</v>
+        <v>2004.743787625215</v>
       </c>
       <c r="R11">
-        <v>9793.821717966399</v>
+        <v>18042.69408862693</v>
       </c>
       <c r="S11">
-        <v>0.01177374942473181</v>
+        <v>0.03659317990304043</v>
       </c>
       <c r="T11">
-        <v>0.0117737494247318</v>
+        <v>0.03659317990304043</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H12">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I12">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J12">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N12">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O12">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P12">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q12">
-        <v>21985.58007309226</v>
+        <v>17644.06985739796</v>
       </c>
       <c r="R12">
-        <v>197870.2206578304</v>
+        <v>158796.6287165817</v>
       </c>
       <c r="S12">
-        <v>0.2378718404040361</v>
+        <v>0.3220624134111451</v>
       </c>
       <c r="T12">
-        <v>0.2378718404040361</v>
+        <v>0.3220624134111451</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H13">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I13">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J13">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N13">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q13">
-        <v>10384.9168163812</v>
+        <v>6362.367619591749</v>
       </c>
       <c r="R13">
-        <v>93464.25134743079</v>
+        <v>57261.30857632573</v>
       </c>
       <c r="S13">
-        <v>0.1123590675043752</v>
+        <v>0.1161341735288746</v>
       </c>
       <c r="T13">
-        <v>0.1123590675043752</v>
+        <v>0.1161341735288746</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H14">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I14">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J14">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N14">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O14">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P14">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q14">
-        <v>424.2458980822627</v>
+        <v>83.46389422301333</v>
       </c>
       <c r="R14">
-        <v>3818.213082740364</v>
+        <v>751.17504800712</v>
       </c>
       <c r="S14">
-        <v>0.004590106434544355</v>
+        <v>0.001523491089267336</v>
       </c>
       <c r="T14">
-        <v>0.004590106434544355</v>
+        <v>0.001523491089267336</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H15">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I15">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J15">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N15">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q15">
-        <v>4854.23080392773</v>
+        <v>2144.407146694437</v>
       </c>
       <c r="R15">
-        <v>43688.07723534956</v>
+        <v>19299.66432024994</v>
       </c>
       <c r="S15">
-        <v>0.05252009777487972</v>
+        <v>0.03914249640713948</v>
       </c>
       <c r="T15">
-        <v>0.0525200977748797</v>
+        <v>0.03914249640713948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>171.783722</v>
+        <v>83.33014933333334</v>
       </c>
       <c r="H16">
-        <v>515.351166</v>
+        <v>249.990448</v>
       </c>
       <c r="I16">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="J16">
-        <v>0.5177047366363255</v>
+        <v>0.6835814083526421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N16">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O16">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P16">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q16">
-        <v>10200.48568963267</v>
+        <v>11215.44538055606</v>
       </c>
       <c r="R16">
-        <v>91804.37120669404</v>
+        <v>100939.0084250045</v>
       </c>
       <c r="S16">
-        <v>0.1103636245184903</v>
+        <v>0.2047188339162158</v>
       </c>
       <c r="T16">
-        <v>0.1103636245184903</v>
+        <v>0.2047188339162158</v>
       </c>
     </row>
   </sheetData>
